--- a/AI Tool Matrix.xlsx
+++ b/AI Tool Matrix.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PVanStryp\Desktop\PD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmolo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B4E3F260-C6A9-444B-AC51-0BB3BFFA96B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDCE730-42E2-4AE0-85B0-9371105EB07B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Types vs Purpose" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tools vs Types'!$A$1:$AU$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Types vs Purpose'!$A$2:$AP$41</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -730,8 +729,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,29 +1507,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" customWidth="1"/>
+    <col min="8" max="41" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" thickBot="1">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1576,7 @@
       <c r="AO1" s="41"/>
       <c r="AP1" s="42"/>
     </row>
-    <row r="2" spans="1:42" ht="338.25">
+    <row r="2" spans="1:42" ht="298.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" hidden="1">
+    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="AP5" s="11"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>51</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:42" hidden="1">
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>55</v>
       </c>
@@ -2067,7 +2066,7 @@
       <c r="AK10" s="10"/>
       <c r="AP10" s="11"/>
     </row>
-    <row r="11" spans="1:42" hidden="1">
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -2116,7 +2115,7 @@
       <c r="AK11" s="10"/>
       <c r="AP11" s="11"/>
     </row>
-    <row r="12" spans="1:42" hidden="1">
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
@@ -2147,7 +2146,7 @@
       <c r="AK12" s="10"/>
       <c r="AP12" s="11"/>
     </row>
-    <row r="13" spans="1:42" hidden="1">
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -2190,7 +2189,7 @@
       </c>
       <c r="AP13" s="11"/>
     </row>
-    <row r="14" spans="1:42" hidden="1">
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="AK14" s="10"/>
       <c r="AP14" s="11"/>
     </row>
-    <row r="15" spans="1:42" hidden="1">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2290,7 +2289,7 @@
       </c>
       <c r="AP15" s="11"/>
     </row>
-    <row r="16" spans="1:42" hidden="1">
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
@@ -2372,7 +2371,7 @@
       </c>
       <c r="AP16" s="11"/>
     </row>
-    <row r="17" spans="1:42" hidden="1">
+    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>62</v>
       </c>
@@ -2414,7 +2413,7 @@
       </c>
       <c r="AP17" s="11"/>
     </row>
-    <row r="18" spans="1:42" hidden="1">
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>63</v>
       </c>
@@ -2440,7 +2439,7 @@
       <c r="AK18" s="10"/>
       <c r="AP18" s="11"/>
     </row>
-    <row r="19" spans="1:42" hidden="1">
+    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:42" hidden="1">
+    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>65</v>
       </c>
@@ -2587,7 +2586,7 @@
       </c>
       <c r="AP20" s="11"/>
     </row>
-    <row r="21" spans="1:42" hidden="1">
+    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -2642,7 +2641,7 @@
       </c>
       <c r="AP21" s="11"/>
     </row>
-    <row r="22" spans="1:42" hidden="1">
+    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -2682,7 +2681,7 @@
       </c>
       <c r="AP22" s="11"/>
     </row>
-    <row r="23" spans="1:42" hidden="1">
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>69</v>
       </c>
@@ -2788,7 +2787,7 @@
       </c>
       <c r="AP24" s="11"/>
     </row>
-    <row r="25" spans="1:42" hidden="1">
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>70</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:42" hidden="1">
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:42" hidden="1">
+    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>72</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="AK27" s="10"/>
       <c r="AP27" s="11"/>
     </row>
-    <row r="28" spans="1:42" hidden="1">
+    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>73</v>
       </c>
@@ -2977,7 +2976,7 @@
       </c>
       <c r="AP28" s="11"/>
     </row>
-    <row r="29" spans="1:42" hidden="1">
+    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>74</v>
       </c>
@@ -3003,7 +3002,7 @@
       <c r="AK29" s="10"/>
       <c r="AP29" s="11"/>
     </row>
-    <row r="30" spans="1:42" hidden="1">
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>75</v>
       </c>
@@ -3048,7 +3047,7 @@
       </c>
       <c r="AP30" s="11"/>
     </row>
-    <row r="31" spans="1:42" hidden="1">
+    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>76</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="AK31" s="10"/>
       <c r="AP31" s="11"/>
     </row>
-    <row r="32" spans="1:42" hidden="1">
+    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
@@ -3113,7 +3112,7 @@
       </c>
       <c r="AP32" s="11"/>
     </row>
-    <row r="33" spans="1:42" hidden="1">
+    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>78</v>
       </c>
@@ -3151,7 +3150,7 @@
       </c>
       <c r="AP33" s="11"/>
     </row>
-    <row r="34" spans="1:42" hidden="1">
+    <row r="34" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>79</v>
       </c>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="AP34" s="11"/>
     </row>
-    <row r="35" spans="1:42" hidden="1">
+    <row r="35" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:42" hidden="1">
+    <row r="36" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>81</v>
       </c>
@@ -3301,7 +3300,7 @@
       </c>
       <c r="AP36" s="11"/>
     </row>
-    <row r="37" spans="1:42" hidden="1">
+    <row r="37" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>82</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:42" hidden="1">
+    <row r="38" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3392,7 @@
       </c>
       <c r="AP38" s="11"/>
     </row>
-    <row r="39" spans="1:42" hidden="1">
+    <row r="39" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>84</v>
       </c>
@@ -3422,7 +3421,7 @@
       </c>
       <c r="AP39" s="11"/>
     </row>
-    <row r="40" spans="1:42" hidden="1">
+    <row r="40" spans="1:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>85</v>
       </c>
@@ -3456,7 +3455,7 @@
       <c r="AK40" s="10"/>
       <c r="AP40" s="11"/>
     </row>
-    <row r="41" spans="1:42" ht="15.75" thickBot="1">
+    <row r="41" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>86</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="AP41" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP41" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:AP41">
     <filterColumn colId="2">
       <filters>
         <filter val="X"/>
@@ -3551,23 +3550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="43" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="43" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="188.25">
+    <row r="1" spans="1:47" ht="186.5" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>100</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>101</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>102</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>103</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>104</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>106</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>109</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>110</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>111</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>112</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>113</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>114</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>115</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>116</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>117</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>118</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>119</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>120</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>121</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>122</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>123</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>124</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>125</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>126</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>128</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>129</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>130</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>131</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>132</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>133</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>134</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>135</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>136</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>137</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>139</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>140</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>141</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>142</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>143</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>144</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>145</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>146</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>147</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>148</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>149</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>150</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>151</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>152</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>153</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>154</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>155</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>156</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>157</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>158</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>159</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>160</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>161</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>162</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>163</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>164</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>165</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>166</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>167</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>168</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>169</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>170</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>171</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>172</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>173</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>174</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>175</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
         <v>176</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
         <v>177</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="34" t="s">
         <v>178</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
         <v>179</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="34" t="s">
         <v>180</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
         <v>181</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
         <v>182</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
         <v>183</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
         <v>184</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
         <v>185</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
         <v>186</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
         <v>187</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
         <v>188</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
         <v>189</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
         <v>190</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
         <v>191</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
         <v>192</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
         <v>193</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
         <v>194</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
         <v>195</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A94" s="34" t="s">
         <v>196</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A95" s="34" t="s">
         <v>197</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" s="34" t="s">
         <v>198</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="34" t="s">
         <v>199</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
         <v>200</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="34" t="s">
         <v>201</v>
       </c>
@@ -9739,7 +9738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="34" t="s">
         <v>202</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="34" t="s">
         <v>203</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
         <v>204</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="34" t="s">
         <v>205</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
         <v>206</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
         <v>207</v>
       </c>
@@ -10105,7 +10104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
         <v>208</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" s="34" t="s">
         <v>209</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" s="34" t="s">
         <v>210</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" s="34" t="s">
         <v>211</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="s">
         <v>212</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" s="34" t="s">
         <v>213</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" s="34" t="s">
         <v>214</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="s">
         <v>215</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="34" t="s">
         <v>216</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="34" t="s">
         <v>217</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A116" s="34" t="s">
         <v>218</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A117" s="34" t="s">
         <v>219</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="34" t="s">
         <v>220</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="34" t="s">
         <v>221</v>
       </c>
@@ -10959,7 +10958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="34" t="s">
         <v>222</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="34" t="s">
         <v>223</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="34" t="s">
         <v>224</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="34" t="s">
         <v>225</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="34" t="s">
         <v>226</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="34" t="s">
         <v>227</v>
       </c>
@@ -11326,7 +11325,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU125" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:AU125"/>
   <conditionalFormatting sqref="B2:AQ125">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",B2)))</formula>
@@ -11339,130 +11338,130 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B6DE64FF-47AD-4283-B7FC-617AE951C8CE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{704624A3-2B51-4563-93EE-C28099C83F31}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{6B1C8022-B01D-440E-91B1-010A4EB431AD}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{4FFAF8BB-6C33-4A70-8E0F-B30D8285B25A}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{A7967654-ACA6-43CE-B031-3213FF777DEF}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{0CF840C1-9FAF-470E-82FE-1DF37D4C6F3C}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{E7AD2D04-97E8-4BF0-932E-51165AD58A97}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{C198D3BA-48BF-4700-B60E-27C0C5C8E07F}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{C2175816-BDD6-49FC-A068-C0FAF5354705}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{417210EC-8A9F-4A5B-A0A1-7E2AE93D7C81}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{A86A3ECD-5AEE-44F4-A173-85FEE91252BA}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{0CF86B2A-FF88-4BD7-A538-F1A1632A136A}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{31A904D2-728E-4E73-8E41-095982459056}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{E3E7A2EC-04D4-4376-837E-BB8FAE2F8911}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{A2CEB583-088E-43CF-A5B2-8D4A7FA7F02D}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{6AFAB311-DA85-4947-A876-C038718CAAD6}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{DA65A7EA-16DF-4F73-A761-10BAFD39705B}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{6D8E603A-C079-4EBD-A99A-C346D4C9C9D5}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{365A7782-18C0-414B-A7A5-CA8DE3C2F769}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{1BAFC4A9-DAC7-45F1-8E9D-79EAB07808B2}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{A9321760-C292-45B4-8E63-6B71C9D27FDA}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{78B3F86E-DD0A-44C6-A61E-8B0954C17CA1}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{ACB6AB7F-F78A-452B-B710-60AA70384618}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{2DDD4685-8189-47CA-8416-0E9C5927AC59}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{F176A9ED-3298-44E7-9306-D90638695216}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{5F623561-01A1-4649-8D6A-6A6A7D05B87D}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{55B2C748-8394-496D-98CF-C7295B20EE44}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{3E8D9E08-EC51-453F-AB90-7764266BCD24}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{B6EEAB9A-5EFD-4AE5-9082-E12369119B86}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{7821C463-AA25-4F7A-BF3B-8109EFC9018C}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{3121959E-AD6F-4CDA-832A-198C56F313C0}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{469D6E1B-E91C-4ABB-8360-83A8FF9952A9}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{1430BCD1-F0CF-4EA6-93AF-766A68C9F2F2}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{C0C1FCDB-EEED-4EF7-844D-D8C9F3487C3F}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{7692EBBE-2704-4D36-848D-F994D635673D}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{5C09C17D-D0E2-4F51-9B87-F9AE5F976A72}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{80129D02-D620-4B0B-B3DD-863263A29B1F}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{DC07218C-C50D-42FF-9CFC-FECAD4607878}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{12BDAB4B-FA58-4E5C-9170-40ADB7B5101C}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{51820873-82DE-4AB0-9E30-9A1F6542D381}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{95EC2B28-4A6E-4E6A-8E55-C6CED6606A93}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{FCA6C388-7F6A-4BBB-9462-0F786A7CAECA}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{5AD295A9-5071-46F8-A172-2BF0F6DE9C9A}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{B7F2DC89-9A2D-48C1-84D2-1272722B6D40}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{8069B9F1-BFF0-4802-B682-D3F736CD5043}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{E5840CA5-0FD6-4CED-8153-F17A71E18C20}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{925A368F-C707-47C0-9C20-8EAC72D92DD9}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{723030DF-ED86-446F-8A5A-4721000A1642}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{F699C1C5-1FDE-4545-A116-B4CEB18E71EF}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{BBB9792D-56AE-4EEE-A245-4D57E2D01EC8}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{24F58AF3-567B-4251-B042-D9F96BCA63B9}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{63782ACF-1F4B-4ED7-97C2-7111DA37BE07}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{6345E6CD-4DA5-4DA1-BDA6-312FA41C4622}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{52C18A20-5F13-4C0B-ADE8-90AC658ABF60}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{732AE499-C2A6-4481-834B-FF0D09AC452C}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{CC8F4571-314A-47F9-9EB5-59E3B7965058}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{47CC6449-EAD8-4EBB-9356-6D3ECA048DE9}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{D029A663-BF00-4963-A11D-F9909EDF615D}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{C722D2CE-6194-4EFC-B9C3-20878EC5C70C}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{65B03AC2-A1B2-4B23-804A-494896B907F5}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{286C54B8-5765-4634-A999-FEB5E9BE04F8}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{72FDBEFC-4BBB-45EC-98FF-324CE09A7F93}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{81D07683-47DE-4620-9E77-96562B9F8FB6}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{AAF3ADAF-9CB9-4E9E-BC86-12E3A225AC82}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{F94B53F9-6219-47CC-84FB-AC88734FF93F}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{1ED85C21-CA0A-4165-97AB-9272B0925930}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{89CFE59F-4D1D-4D0E-90BD-691577174DCC}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{E561592C-E85C-4AC0-A89F-78A4266DBE7D}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{F1D58DE9-908D-4191-A5DA-3C9159810320}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{D5D88974-060C-4235-88B1-D49184CAB5E2}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{0A5CA822-01F5-4C72-A835-CD615853CDD5}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{99020F93-795B-4FD0-A7CD-3A53BFF622B2}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{4F62DC92-ACA5-4481-8C17-A4ADDAD80A57}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{4F68B57B-5656-4105-B955-5348C6ECD1C3}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{8DC48714-EBBD-45D9-AA55-E19E2A28B0BA}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{ACD6634E-AC38-47CC-B890-B87E5E9B95CE}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{15C948E1-43A1-491D-B54E-E2D03EC4825B}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{D2684AF4-CF01-4C33-A8BA-3C8E339314F0}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{72C3ABFB-7A41-4562-98F0-23C41FB4D44E}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{05DE2E65-EA16-4630-98B1-1C382AF9913A}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{180CA625-C0BE-47CA-B83A-A6A7F68053CF}"/>
-    <hyperlink ref="A83" r:id="rId82" xr:uid="{0DFF3467-46D2-44F7-9326-75A4F878A63F}"/>
-    <hyperlink ref="A84" r:id="rId83" xr:uid="{47E315D0-D841-40A5-8FB5-EE49CA980DAF}"/>
-    <hyperlink ref="A85" r:id="rId84" xr:uid="{AAFB1B1F-07DE-4681-B5B5-39C60C6707CF}"/>
-    <hyperlink ref="A86" r:id="rId85" xr:uid="{8C8B97B9-F9E0-474D-A6BB-873EE7016A6D}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{F38299F5-A5AC-42DB-B8F1-8446F0248216}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{5D17E62C-8828-42B6-86B0-B03AA89BE2AA}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{1C575049-9BB2-4A31-B573-B8B021F64134}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{0B5E06B2-F7B0-4E1C-8F46-BC6E6DC5367E}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{B93D2D56-0EE1-425E-8A5D-4D7C286605BE}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{63729C05-BB10-4F13-8A3A-E0AA466F73A5}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{5E1EF8FB-A1E3-49FD-990B-75E2CF692C23}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{8B202F27-C8A0-44BF-8716-15B0F7CFE660}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{171DE350-D2E4-482A-BAFC-0D95BB66A337}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{7096021E-7578-46FF-AFAB-3E479AD33246}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{6DB92E65-1D64-4EA5-A3D2-291777D33943}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{D6E4B74F-9551-4BAB-BFCC-7BD027C59AC6}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{AF086AFD-4C75-47F2-AF32-580669DCC63B}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{6D95069D-3EE9-4A22-9C1B-557AE93A4F01}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{04A175AE-00AA-41DE-99B5-48A21465BB51}"/>
-    <hyperlink ref="A102" r:id="rId101" xr:uid="{C573DB01-FB81-4F02-8D22-DF165E9A82AD}"/>
-    <hyperlink ref="A103" r:id="rId102" xr:uid="{3FFD695E-F00E-4F95-BB2A-3F156D47EA34}"/>
-    <hyperlink ref="A104" r:id="rId103" xr:uid="{61C316D6-024C-4F45-BF08-36D039B2523B}"/>
-    <hyperlink ref="A105" r:id="rId104" xr:uid="{CB66BFB9-FBD4-4F2F-8560-09D78FA39CF4}"/>
-    <hyperlink ref="A106" r:id="rId105" xr:uid="{9EAB8D2C-34EA-4B50-8503-9E62AAE69BDD}"/>
-    <hyperlink ref="A107" r:id="rId106" xr:uid="{AEE5133B-A2C6-4B18-8112-8638D1470734}"/>
-    <hyperlink ref="A108" r:id="rId107" xr:uid="{7D9A86ED-8580-4FF4-AB0D-F90261AEE9F4}"/>
-    <hyperlink ref="A109" r:id="rId108" xr:uid="{D17D5DB2-F927-4EFD-B050-A470994E1A40}"/>
-    <hyperlink ref="A110" r:id="rId109" xr:uid="{1E9D57A0-6927-4753-BF34-5DD8AE21D1AB}"/>
-    <hyperlink ref="A111" r:id="rId110" xr:uid="{75F62E54-7530-4273-91D6-1CF2067A574A}"/>
-    <hyperlink ref="A112" r:id="rId111" xr:uid="{474F50BA-490B-4DB9-B4D5-C4B53D607AE6}"/>
-    <hyperlink ref="A113" r:id="rId112" xr:uid="{CCE0534A-3A60-4538-8B10-25D2C1BD6E71}"/>
-    <hyperlink ref="A114" r:id="rId113" xr:uid="{E734DAB2-0344-4992-A4EF-9A5ECDAA42F0}"/>
-    <hyperlink ref="A115" r:id="rId114" xr:uid="{48F4C394-71A8-4972-B266-9FA614CD2311}"/>
-    <hyperlink ref="A116" r:id="rId115" xr:uid="{225353E9-5EF7-4F8E-B399-3A14DC15333D}"/>
-    <hyperlink ref="A117" r:id="rId116" xr:uid="{4D13E7E9-F6BE-49E7-9D90-4A9B0C30F8DC}"/>
-    <hyperlink ref="A118" r:id="rId117" xr:uid="{A07DF476-F816-497D-8D46-FD6EAE567781}"/>
-    <hyperlink ref="A119" r:id="rId118" xr:uid="{407250A5-D35D-4A4B-8E35-6C3F19F58960}"/>
-    <hyperlink ref="A120" r:id="rId119" xr:uid="{973501AC-B4B9-40CE-999B-08DEDF9CFD50}"/>
-    <hyperlink ref="A121" r:id="rId120" xr:uid="{ECE6D6C2-4416-4F99-9E0C-CFB40D08825F}"/>
-    <hyperlink ref="A122" r:id="rId121" xr:uid="{2B284547-CEC5-4004-8F73-FC67FAE7B546}"/>
-    <hyperlink ref="A123" r:id="rId122" xr:uid="{73A921E1-6882-47D5-83AC-BC5108473B70}"/>
-    <hyperlink ref="A124" r:id="rId123" xr:uid="{E4B1D01B-656C-46DB-B8E4-2495A9DF5700}"/>
-    <hyperlink ref="A125" r:id="rId124" xr:uid="{ED961268-383D-48CA-ACD5-1CE205F0D7F0}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11478,6 +11477,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007425DCFE1C6409418EAED5337C195EDA" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35d0c445eb2ff0177b0e97ec5bc27b38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e268eb8-5a22-4fd9-9f8b-461e9d6bebba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ae5db35ca551cf7d3c6a4d235073a26" ns2:_="">
     <xsd:import namespace="8e268eb8-5a22-4fd9-9f8b-461e9d6bebba"/>
@@ -11615,20 +11620,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A0B171A-8EA0-49EF-8470-909DBBF46AD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A0B171A-8EA0-49EF-8470-909DBBF46AD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AE214E-F69A-4440-981E-7151B0DEB4FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA960F9-5231-43B1-800B-1AA8D6BE4216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA960F9-5231-43B1-800B-1AA8D6BE4216}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AE214E-F69A-4440-981E-7151B0DEB4FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e268eb8-5a22-4fd9-9f8b-461e9d6bebba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>